--- a/biology/Botanique/Grex/Grex.xlsx
+++ b/biology/Botanique/Grex/Grex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le cadre de la classification des plantes cultivées,  le grex (terme dérivé du latin grex, gregis, le troupeau),  est un rang taxinomique qui regroupe des hybrides d'orchidées en considérant uniquement leur filiation[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cadre de la classification des plantes cultivées,  le grex (terme dérivé du latin grex, gregis, le troupeau),  est un rang taxinomique qui regroupe des hybrides d'orchidées en considérant uniquement leur filiation.
 Les grex sont, avec les cultivars et les groupes, l'une des trois catégories de noms de plantes régies par le Code international pour la nomenclature des plantes cultivées.
-Au sein d'un grex, la catégorie « groupe de cultivars » peut être utilisée pour désigner les plantes par leurs caractéristiques communes (plutôt que par leur parenté), et des plants d'orchidées individuels peuvent être sélectionnés et nommés en tant que cultivars[2],[3].
+Au sein d'un grex, la catégorie « groupe de cultivars » peut être utilisée pour désigner les plantes par leurs caractéristiques communes (plutôt que par leur parenté), et des plants d'orchidées individuels peuvent être sélectionnés et nommés en tant que cultivars,.
 </t>
         </is>
       </c>
